--- a/results/ХРИСТОРОЖДЕСТВЕНСКИЙ КОНСТАНТИН КРНСТАНГИНОВИЧ.xlsx
+++ b/results/ХРИСТОРОЖДЕСТВЕНСКИЙ КОНСТАНТИН КРНСТАНГИНОВИЧ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>True Answers</t>
   </si>
@@ -22,127 +22,139 @@
     <t>Student Answers</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>поэтому</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>упрочение</t>
+  </si>
+  <si>
+    <t>двойственное</t>
+  </si>
+  <si>
+    <t>черном</t>
+  </si>
+  <si>
+    <t>разожжет</t>
+  </si>
+  <si>
+    <t>81635</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>невиновна</t>
+  </si>
+  <si>
+    <t>втайневполголоса</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>несмотрянаэто</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>кровоточила</t>
-  </si>
-  <si>
-    <t>добротная</t>
-  </si>
-  <si>
-    <t>высокомерной</t>
-  </si>
-  <si>
-    <t>взмок</t>
-  </si>
-  <si>
-    <t>16354</t>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2457</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>нераспроданные</t>
-  </si>
-  <si>
-    <t>впустуювдвоем</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1456</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>ушлиживут</t>
-  </si>
-  <si>
-    <t>9341</t>
-  </si>
-  <si>
-    <t>НЕСМОТРЯНАЭТО</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>КРОВОТОЧИЛА</t>
-  </si>
-  <si>
-    <t>ДОБРОТНАЯ</t>
-  </si>
-  <si>
-    <t>СПЕСЬЮ</t>
-  </si>
-  <si>
-    <t>ВЗМОК</t>
-  </si>
-  <si>
-    <t>15358</t>
+    <t>ютились</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>НЕРАСПРОДАННЫЕ</t>
-  </si>
-  <si>
-    <t>ВПУСТУЮВДВОЁМ</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>1465</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>УШЛМЖИВУТ</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>ПОЭТОМУ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>УПРОЧБНИЕ</t>
+  </si>
+  <si>
+    <t>ДВОЙСТВБННОБ</t>
+  </si>
+  <si>
+    <t>ЧВРНОМ</t>
+  </si>
+  <si>
+    <t>РАЗОЖЖЁТ</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>15235</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>НЕВИНОВНА</t>
+  </si>
+  <si>
+    <t>ВТАЙНЕВПОЛПОЛОСА</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1298567</t>
+  </si>
+  <si>
+    <t>2946</t>
+  </si>
+  <si>
+    <t>34,7</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>ЮТМЛМСЬ</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>8879</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -590,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -614,127 +626,127 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
